--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2232904.508903207</v>
+        <v>2231016.927386804</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>97.1341692977079</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>26.53815412835749</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.80462337977889</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>26.53815412835747</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>126.6305324976337</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.8460297402135</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113181</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50.58981020589802</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.9403049819702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.7059714321714</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002171</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.562624396424889</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>237.6821551249383</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.2582688907056</v>
+        <v>109.9836834426669</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.4122163896552</v>
       </c>
       <c r="E31" t="n">
-        <v>78.22041541355219</v>
+        <v>91.23070601801201</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>57.41378701535116</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897897</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1134.473993239633</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C2" t="n">
-        <v>1134.473993239633</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D2" t="n">
-        <v>1134.473993239633</v>
+        <v>891.4467595608955</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>505.6585069626513</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>94.67260217304374</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1521.073833303755</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4443,13 +4443,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>710.8232485495353</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>960.4731223681274</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>549.4872175785199</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>131.5234094767068</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.342874726952</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2339.279987383381</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.511332113267</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.045573852188</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,19 +4656,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2522.073906861631</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5233,16 +5233,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229245</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.5496456007323</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5273,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799363</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1319.415289313285</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1030.286650526843</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>775.6021623209559</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>486.1849922839954</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,37 +5510,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>549.5984374701561</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.8045051785811</v>
+        <v>415.8104215925223</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>415.8104215925223</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925223</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925223</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925223</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>755.7940560765983</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="V22" t="n">
-        <v>755.7940560765984</v>
+        <v>933.2171425275002</v>
       </c>
       <c r="W22" t="n">
-        <v>755.7940560765984</v>
+        <v>643.7999724905396</v>
       </c>
       <c r="X22" t="n">
-        <v>527.8045051785811</v>
+        <v>415.8104215925223</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.8045051785811</v>
+        <v>415.8104215925223</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542183</v>
+        <v>604.5641438163791</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076822</v>
+        <v>604.5641438163791</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767172</v>
+        <v>510.2083696854142</v>
       </c>
       <c r="E31" t="n">
-        <v>152.9908175569676</v>
+        <v>418.0561413843919</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569676</v>
+        <v>360.0624171264615</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818942</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030872</v>
+        <v>730.4517433652479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,55 +6695,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,13 +6862,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7558,7 +7558,7 @@
         <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7849,7 +7849,7 @@
         <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814694</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M36" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>98.02566281231434</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.6443483701245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>43.84158962621782</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.0576765518777</v>
       </c>
     </row>
     <row r="17">
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.45548819888973</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.97908350787174</v>
+        <v>176.2536689559104</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>13.0102906044599</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>32.80400437902292</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881796.5332577626</v>
+        <v>881796.5332577627</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459066</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.885416114</v>
+        <v>549209.8854161142</v>
       </c>
       <c r="L2" t="n">
+        <v>554203.1946583906</v>
+      </c>
+      <c r="M2" t="n">
         <v>554203.1946583908</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>554203.1946583905</v>
+      </c>
+      <c r="O2" t="n">
         <v>554203.1946583907</v>
       </c>
-      <c r="N2" t="n">
-        <v>554203.1946583906</v>
-      </c>
-      <c r="O2" t="n">
-        <v>554203.1946583908</v>
-      </c>
       <c r="P2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583907</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007463</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007438</v>
+        <v>7916.731656007504</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007437</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007503</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020403</v>
+        <v>26081.35417020408</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354838</v>
+        <v>-266540.8113354836</v>
       </c>
       <c r="C6" t="n">
         <v>323427.067879061</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.0678790607</v>
+        <v>323427.0678790606</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571325</v>
+        <v>-97272.32256168553</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411828</v>
+        <v>427887.7139152105</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411828</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411826</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.1730411829</v>
+        <v>427887.7139152105</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.95384859</v>
+        <v>251464.4947226177</v>
       </c>
       <c r="K6" t="n">
-        <v>382337.7174128415</v>
+        <v>382319.2236749073</v>
       </c>
       <c r="L6" t="n">
-        <v>415809.6631401706</v>
+        <v>415809.6631401704</v>
       </c>
       <c r="M6" t="n">
-        <v>291351.5547072002</v>
+        <v>291351.5547072003</v>
       </c>
       <c r="N6" t="n">
+        <v>426152.5699410371</v>
+      </c>
+      <c r="O6" t="n">
         <v>426152.5699410373</v>
       </c>
-      <c r="O6" t="n">
-        <v>426152.5699410375</v>
-      </c>
       <c r="P6" t="n">
-        <v>381989.9646381919</v>
+        <v>381989.9646381916</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545554</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>284.7962007745539</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.3931621165038</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>11.99007165458412</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>247.1181493845783</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>224.6860133799318</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>89.81778786002407</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>250.8850709382556</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.217746946403958e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,10 +35969,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>378.4011515192551</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412267</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.4289566004319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
